--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fasl</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>0.399107</v>
       </c>
       <c r="I2">
-        <v>0.252984848748964</v>
+        <v>0.2921233835506897</v>
       </c>
       <c r="J2">
-        <v>0.275069214085006</v>
+        <v>0.3075293673451303</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N2">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O2">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P2">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q2">
-        <v>1.643223650511777</v>
+        <v>0.5806048106295555</v>
       </c>
       <c r="R2">
-        <v>14.789012854606</v>
+        <v>5.225443295666</v>
       </c>
       <c r="S2">
-        <v>0.09101231806962466</v>
+        <v>0.04741853312097115</v>
       </c>
       <c r="T2">
-        <v>0.102448191294945</v>
+        <v>0.05208271620851362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.399107</v>
       </c>
       <c r="I3">
-        <v>0.252984848748964</v>
+        <v>0.2921233835506897</v>
       </c>
       <c r="J3">
-        <v>0.275069214085006</v>
+        <v>0.3075293673451303</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>26.435724</v>
       </c>
       <c r="O3">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P3">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q3">
         <v>1.172298055385333</v>
@@ -638,10 +638,10 @@
         <v>10.550682498468</v>
       </c>
       <c r="S3">
-        <v>0.06492942300088185</v>
+        <v>0.09574266893631864</v>
       </c>
       <c r="T3">
-        <v>0.07308793017639685</v>
+        <v>0.1051601120290798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>0.399107</v>
       </c>
       <c r="I4">
-        <v>0.252984848748964</v>
+        <v>0.2921233835506897</v>
       </c>
       <c r="J4">
-        <v>0.275069214085006</v>
+        <v>0.3075293673451303</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N4">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O4">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P4">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q4">
-        <v>0.5531641201541111</v>
+        <v>0.7056056551722223</v>
       </c>
       <c r="R4">
-        <v>4.978477081387</v>
+        <v>6.350450896550001</v>
       </c>
       <c r="S4">
-        <v>0.03063779469854289</v>
+        <v>0.05762746797404052</v>
       </c>
       <c r="T4">
-        <v>0.03448749266808473</v>
+        <v>0.06329582259852262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +732,10 @@
         <v>0.399107</v>
       </c>
       <c r="I5">
-        <v>0.252984848748964</v>
+        <v>0.2921233835506897</v>
       </c>
       <c r="J5">
-        <v>0.275069214085006</v>
+        <v>0.3075293673451303</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N5">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O5">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P5">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q5">
-        <v>0.466927651617</v>
+        <v>0.4457268882235</v>
       </c>
       <c r="R5">
-        <v>2.801565909702</v>
+        <v>2.674361329341</v>
       </c>
       <c r="S5">
-        <v>0.02586146318624004</v>
+        <v>0.03640292816247212</v>
       </c>
       <c r="T5">
-        <v>0.01940733726207812</v>
+        <v>0.02665572933699548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>0.399107</v>
       </c>
       <c r="I6">
-        <v>0.252984848748964</v>
+        <v>0.2921233835506897</v>
       </c>
       <c r="J6">
-        <v>0.275069214085006</v>
+        <v>0.3075293673451303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N6">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O6">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P6">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q6">
-        <v>0.7320175364921111</v>
+        <v>0.6725990184747778</v>
       </c>
       <c r="R6">
-        <v>6.588157828429</v>
+        <v>6.053391166273</v>
       </c>
       <c r="S6">
-        <v>0.04054384979367457</v>
+        <v>0.05493178535688729</v>
       </c>
       <c r="T6">
-        <v>0.04563826268350116</v>
+        <v>0.06033498717201884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.266169</v>
+        <v>0.1356786666666667</v>
       </c>
       <c r="H7">
-        <v>0.798507</v>
+        <v>0.407036</v>
       </c>
       <c r="I7">
-        <v>0.5061554235330099</v>
+        <v>0.2979269557961613</v>
       </c>
       <c r="J7">
-        <v>0.5503403671982097</v>
+        <v>0.3136390080020958</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N7">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O7">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P7">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q7">
-        <v>3.287653655533999</v>
+        <v>0.5921396009075556</v>
       </c>
       <c r="R7">
-        <v>29.58888289980599</v>
+        <v>5.329256408168001</v>
       </c>
       <c r="S7">
-        <v>0.1820914518282611</v>
+        <v>0.04836059013604776</v>
       </c>
       <c r="T7">
-        <v>0.2049715937990381</v>
+        <v>0.0531174358621837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.266169</v>
+        <v>0.1356786666666667</v>
       </c>
       <c r="H8">
-        <v>0.798507</v>
+        <v>0.407036</v>
       </c>
       <c r="I8">
-        <v>0.5061554235330099</v>
+        <v>0.2979269557961613</v>
       </c>
       <c r="J8">
-        <v>0.5503403671982097</v>
+        <v>0.3136390080020958</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>26.435724</v>
       </c>
       <c r="O8">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P8">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q8">
-        <v>2.345456740452</v>
+        <v>1.195587928229333</v>
       </c>
       <c r="R8">
-        <v>21.109110664068</v>
+        <v>10.760291354064</v>
       </c>
       <c r="S8">
-        <v>0.1299065132211792</v>
+        <v>0.09764477444184991</v>
       </c>
       <c r="T8">
-        <v>0.1462295170502249</v>
+        <v>0.1072493124898048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.266169</v>
+        <v>0.1356786666666667</v>
       </c>
       <c r="H9">
-        <v>0.798507</v>
+        <v>0.407036</v>
       </c>
       <c r="I9">
-        <v>0.5061554235330099</v>
+        <v>0.2979269557961613</v>
       </c>
       <c r="J9">
-        <v>0.5503403671982097</v>
+        <v>0.3136390080020958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N9">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O9">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P9">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q9">
-        <v>1.106734339643</v>
+        <v>0.7196238188222224</v>
       </c>
       <c r="R9">
-        <v>9.960609056787</v>
+        <v>6.476614369400001</v>
       </c>
       <c r="S9">
-        <v>0.06129808179598301</v>
+        <v>0.05877234439456477</v>
       </c>
       <c r="T9">
-        <v>0.06900030394835052</v>
+        <v>0.06455331138569921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.266169</v>
+        <v>0.1356786666666667</v>
       </c>
       <c r="H10">
-        <v>0.798507</v>
+        <v>0.407036</v>
       </c>
       <c r="I10">
-        <v>0.5061554235330099</v>
+        <v>0.2979269557961613</v>
       </c>
       <c r="J10">
-        <v>0.5503403671982097</v>
+        <v>0.3136390080020958</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N10">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O10">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P10">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q10">
-        <v>0.9341980930169999</v>
+        <v>0.454582078678</v>
       </c>
       <c r="R10">
-        <v>5.605188558101999</v>
+        <v>2.727492472068</v>
       </c>
       <c r="S10">
-        <v>0.05174191228030321</v>
+        <v>0.0371261397758997</v>
       </c>
       <c r="T10">
-        <v>0.03882892220665188</v>
+        <v>0.02718529478664441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.266169</v>
+        <v>0.1356786666666667</v>
       </c>
       <c r="H11">
-        <v>0.798507</v>
+        <v>0.407036</v>
       </c>
       <c r="I11">
-        <v>0.5061554235330099</v>
+        <v>0.2979269557961613</v>
       </c>
       <c r="J11">
-        <v>0.5503403671982097</v>
+        <v>0.3136390080020958</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N11">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O11">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P11">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q11">
-        <v>1.464572475581</v>
+        <v>0.6859614441337778</v>
       </c>
       <c r="R11">
-        <v>13.181152280229</v>
+        <v>6.173652997204</v>
       </c>
       <c r="S11">
-        <v>0.08111746440728351</v>
+        <v>0.05602310704779916</v>
       </c>
       <c r="T11">
-        <v>0.09131003019394415</v>
+        <v>0.06153365347776375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.1266595</v>
+        <v>0.0684425</v>
       </c>
       <c r="H12">
-        <v>0.253319</v>
+        <v>0.136885</v>
       </c>
       <c r="I12">
-        <v>0.2408597277180261</v>
+        <v>0.1502879278890229</v>
       </c>
       <c r="J12">
-        <v>0.1745904187167843</v>
+        <v>0.1054758684990195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.35175266666666</v>
+        <v>4.364279333333333</v>
       </c>
       <c r="N12">
-        <v>37.05525799999999</v>
+        <v>13.092838</v>
       </c>
       <c r="O12">
-        <v>0.3597540268505798</v>
+        <v>0.1623236474417427</v>
       </c>
       <c r="P12">
-        <v>0.3724451376201082</v>
+        <v>0.1693585125158563</v>
       </c>
       <c r="Q12">
-        <v>1.564466816883666</v>
+        <v>0.2987021882716667</v>
       </c>
       <c r="R12">
-        <v>9.386800901301999</v>
+        <v>1.79221312963</v>
       </c>
       <c r="S12">
-        <v>0.08665025695269409</v>
+        <v>0.0243952846214078</v>
       </c>
       <c r="T12">
-        <v>0.06502535252612505</v>
+        <v>0.017863236195312</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.1266595</v>
+        <v>0.0684425</v>
       </c>
       <c r="H13">
-        <v>0.253319</v>
+        <v>0.136885</v>
       </c>
       <c r="I13">
-        <v>0.2408597277180261</v>
+        <v>0.1502879278890229</v>
       </c>
       <c r="J13">
-        <v>0.1745904187167843</v>
+        <v>0.1054758684990195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>26.435724</v>
       </c>
       <c r="O13">
-        <v>0.2566534056168364</v>
+        <v>0.327747364050729</v>
       </c>
       <c r="P13">
-        <v>0.2657074162934502</v>
+        <v>0.341951446578635</v>
       </c>
       <c r="Q13">
-        <v>1.116111861326</v>
+        <v>0.6031090132900001</v>
       </c>
       <c r="R13">
-        <v>6.696671167956</v>
+        <v>3.61865407974</v>
       </c>
       <c r="S13">
-        <v>0.0618174693947753</v>
+        <v>0.04925647221427328</v>
       </c>
       <c r="T13">
-        <v>0.04638996906682839</v>
+        <v>0.03606762581237759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1284,16 +1284,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.1266595</v>
+        <v>0.0684425</v>
       </c>
       <c r="H14">
-        <v>0.253319</v>
+        <v>0.136885</v>
       </c>
       <c r="I14">
-        <v>0.2408597277180261</v>
+        <v>0.1502879278890229</v>
       </c>
       <c r="J14">
-        <v>0.1745904187167843</v>
+        <v>0.1054758684990195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.158013666666666</v>
+        <v>5.303883333333334</v>
       </c>
       <c r="N14">
-        <v>12.474041</v>
+        <v>15.91165</v>
       </c>
       <c r="O14">
-        <v>0.1211052553148931</v>
+        <v>0.1972709862305183</v>
       </c>
       <c r="P14">
-        <v>0.1253775082857033</v>
+        <v>0.205820416908307</v>
       </c>
       <c r="Q14">
-        <v>0.5266519320131666</v>
+        <v>0.3630110350416668</v>
       </c>
       <c r="R14">
-        <v>3.159911592079</v>
+        <v>2.17806621025</v>
       </c>
       <c r="S14">
-        <v>0.02916937882036717</v>
+        <v>0.02964744775320855</v>
       </c>
       <c r="T14">
-        <v>0.02188971166926803</v>
+        <v>0.02170908722823396</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.1266595</v>
+        <v>0.0684425</v>
       </c>
       <c r="H15">
-        <v>0.253319</v>
+        <v>0.136885</v>
       </c>
       <c r="I15">
-        <v>0.2408597277180261</v>
+        <v>0.1502879278890229</v>
       </c>
       <c r="J15">
-        <v>0.1745904187167843</v>
+        <v>0.1054758684990195</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.509793</v>
+        <v>3.3504315</v>
       </c>
       <c r="N15">
-        <v>7.019585999999999</v>
+        <v>6.700863</v>
       </c>
       <c r="O15">
-        <v>0.1022253439845415</v>
+        <v>0.1246149066192622</v>
       </c>
       <c r="P15">
-        <v>0.07055437783771969</v>
+        <v>0.08667702069272822</v>
       </c>
       <c r="Q15">
-        <v>0.4445486264835</v>
+        <v>0.22931190793875</v>
       </c>
       <c r="R15">
-        <v>1.778194505934</v>
+        <v>0.917247631755</v>
       </c>
       <c r="S15">
-        <v>0.02462196851799821</v>
+        <v>0.018728116099893</v>
       </c>
       <c r="T15">
-        <v>0.01231811836898969</v>
+        <v>0.009142334036472992</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.1266595</v>
+        <v>0.0684425</v>
       </c>
       <c r="H16">
-        <v>0.253319</v>
+        <v>0.136885</v>
       </c>
       <c r="I16">
-        <v>0.2408597277180261</v>
+        <v>0.1502879278890229</v>
       </c>
       <c r="J16">
-        <v>0.1745904187167843</v>
+        <v>0.1054758684990195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.502415666666667</v>
+        <v>5.055779666666667</v>
       </c>
       <c r="N16">
-        <v>16.507247</v>
+        <v>15.167339</v>
       </c>
       <c r="O16">
-        <v>0.1602619682331494</v>
+        <v>0.1880430956577478</v>
       </c>
       <c r="P16">
-        <v>0.1659155599630185</v>
+        <v>0.1961926033044734</v>
       </c>
       <c r="Q16">
-        <v>0.6969332171321667</v>
+        <v>0.3460301998358334</v>
       </c>
       <c r="R16">
-        <v>4.181599302793</v>
+        <v>2.076181199015</v>
       </c>
       <c r="S16">
-        <v>0.0386006540321913</v>
+        <v>0.02826060720024023</v>
       </c>
       <c r="T16">
-        <v>0.02896726708557313</v>
+        <v>0.02069358522662294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1182523333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.354757</v>
+      </c>
+      <c r="I17">
+        <v>0.259661732764126</v>
+      </c>
+      <c r="J17">
+        <v>0.2733557561537542</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.364279333333333</v>
+      </c>
+      <c r="N17">
+        <v>13.092838</v>
+      </c>
+      <c r="O17">
+        <v>0.1623236474417427</v>
+      </c>
+      <c r="P17">
+        <v>0.1693585125158563</v>
+      </c>
+      <c r="Q17">
+        <v>0.5160862144851111</v>
+      </c>
+      <c r="R17">
+        <v>4.644775930366</v>
+      </c>
+      <c r="S17">
+        <v>0.04214923956331601</v>
+      </c>
+      <c r="T17">
+        <v>0.04629512424984695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1182523333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.354757</v>
+      </c>
+      <c r="I18">
+        <v>0.259661732764126</v>
+      </c>
+      <c r="J18">
+        <v>0.2733557561537542</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.811908000000001</v>
+      </c>
+      <c r="N18">
+        <v>26.435724</v>
+      </c>
+      <c r="O18">
+        <v>0.327747364050729</v>
+      </c>
+      <c r="P18">
+        <v>0.341951446578635</v>
+      </c>
+      <c r="Q18">
+        <v>1.042028682118667</v>
+      </c>
+      <c r="R18">
+        <v>9.378258139068</v>
+      </c>
+      <c r="S18">
+        <v>0.0851034484582871</v>
+      </c>
+      <c r="T18">
+        <v>0.09347439624737287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1182523333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.354757</v>
+      </c>
+      <c r="I19">
+        <v>0.259661732764126</v>
+      </c>
+      <c r="J19">
+        <v>0.2733557561537542</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.303883333333334</v>
+      </c>
+      <c r="N19">
+        <v>15.91165</v>
+      </c>
+      <c r="O19">
+        <v>0.1972709862305183</v>
+      </c>
+      <c r="P19">
+        <v>0.205820416908307</v>
+      </c>
+      <c r="Q19">
+        <v>0.6271965798944446</v>
+      </c>
+      <c r="R19">
+        <v>5.644769219050001</v>
+      </c>
+      <c r="S19">
+        <v>0.05122372610870442</v>
+      </c>
+      <c r="T19">
+        <v>0.05626219569585122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1182523333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.354757</v>
+      </c>
+      <c r="I20">
+        <v>0.259661732764126</v>
+      </c>
+      <c r="J20">
+        <v>0.2733557561537542</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.3504315</v>
+      </c>
+      <c r="N20">
+        <v>6.700863</v>
+      </c>
+      <c r="O20">
+        <v>0.1246149066192622</v>
+      </c>
+      <c r="P20">
+        <v>0.08667702069272822</v>
+      </c>
+      <c r="Q20">
+        <v>0.3961963425485</v>
+      </c>
+      <c r="R20">
+        <v>2.377178055291</v>
+      </c>
+      <c r="S20">
+        <v>0.03235772258099739</v>
+      </c>
+      <c r="T20">
+        <v>0.02369366253261532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1182523333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.354757</v>
+      </c>
+      <c r="I21">
+        <v>0.259661732764126</v>
+      </c>
+      <c r="J21">
+        <v>0.2733557561537542</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.055779666666667</v>
+      </c>
+      <c r="N21">
+        <v>15.167339</v>
+      </c>
+      <c r="O21">
+        <v>0.1880430956577478</v>
+      </c>
+      <c r="P21">
+        <v>0.1961926033044734</v>
+      </c>
+      <c r="Q21">
+        <v>0.5978577424025556</v>
+      </c>
+      <c r="R21">
+        <v>5.380719681623</v>
+      </c>
+      <c r="S21">
+        <v>0.0488275960528211</v>
+      </c>
+      <c r="T21">
+        <v>0.05363037742806788</v>
       </c>
     </row>
   </sheetData>
